--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H2">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I2">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J2">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N2">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O2">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P2">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q2">
-        <v>29.47901915188977</v>
+        <v>39.11606514297933</v>
       </c>
       <c r="R2">
-        <v>265.3111723670079</v>
+        <v>352.044586286814</v>
       </c>
       <c r="S2">
-        <v>0.0091330143294657</v>
+        <v>0.007667548251127079</v>
       </c>
       <c r="T2">
-        <v>0.009133014329465698</v>
+        <v>0.007667548251127078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H3">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I3">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J3">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>16.614382</v>
       </c>
       <c r="N3">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O3">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P3">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q3">
-        <v>40.56199777465067</v>
+        <v>45.97987021106799</v>
       </c>
       <c r="R3">
-        <v>365.057979971856</v>
+        <v>413.8188318996119</v>
       </c>
       <c r="S3">
-        <v>0.01256667682865874</v>
+        <v>0.009012994332002786</v>
       </c>
       <c r="T3">
-        <v>0.01256667682865874</v>
+        <v>0.009012994332002785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H4">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I4">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J4">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N4">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O4">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P4">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q4">
-        <v>107.0969556807485</v>
+        <v>243.143989008968</v>
       </c>
       <c r="R4">
-        <v>963.872601126736</v>
+        <v>2188.295901080712</v>
       </c>
       <c r="S4">
-        <v>0.0331801416402189</v>
+        <v>0.0476611914026426</v>
       </c>
       <c r="T4">
-        <v>0.0331801416402189</v>
+        <v>0.04766119140264259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H5">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I5">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J5">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N5">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O5">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P5">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q5">
-        <v>14.48436760183466</v>
+        <v>15.01365345899467</v>
       </c>
       <c r="R5">
-        <v>130.359308416512</v>
+        <v>135.122881130952</v>
       </c>
       <c r="S5">
-        <v>0.004487460596270362</v>
+        <v>0.002942982938129304</v>
       </c>
       <c r="T5">
-        <v>0.004487460596270362</v>
+        <v>0.002942982938129304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H6">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I6">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J6">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N6">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O6">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P6">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q6">
-        <v>169.864189228496</v>
+        <v>265.0934553645486</v>
       </c>
       <c r="R6">
-        <v>1528.777703056464</v>
+        <v>2385.841098280938</v>
       </c>
       <c r="S6">
-        <v>0.0526263125069911</v>
+        <v>0.0519637354277824</v>
       </c>
       <c r="T6">
-        <v>0.0526263125069911</v>
+        <v>0.0519637354277824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>38.657336</v>
       </c>
       <c r="I7">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J7">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N7">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O7">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P7">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q7">
-        <v>155.5924614596231</v>
+        <v>182.1303317550035</v>
       </c>
       <c r="R7">
-        <v>1400.332153136608</v>
+        <v>1639.172985795032</v>
       </c>
       <c r="S7">
-        <v>0.04820473071867729</v>
+        <v>0.03570126753856066</v>
       </c>
       <c r="T7">
-        <v>0.04820473071867729</v>
+        <v>0.03570126753856065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>38.657336</v>
       </c>
       <c r="I8">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J8">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>16.614382</v>
       </c>
       <c r="N8">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O8">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P8">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q8">
-        <v>214.0892491354507</v>
+        <v>214.0892491354506</v>
       </c>
       <c r="R8">
         <v>1926.803242219056</v>
       </c>
       <c r="S8">
-        <v>0.06632785745224765</v>
+        <v>0.04196586854514589</v>
       </c>
       <c r="T8">
-        <v>0.06632785745224763</v>
+        <v>0.04196586854514588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>38.657336</v>
       </c>
       <c r="I9">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J9">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N9">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O9">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P9">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q9">
-        <v>565.2657187588818</v>
+        <v>1132.115288707317</v>
       </c>
       <c r="R9">
-        <v>5087.391468829936</v>
+        <v>10189.03759836586</v>
       </c>
       <c r="S9">
-        <v>0.1751272619614837</v>
+        <v>0.2219177355971867</v>
       </c>
       <c r="T9">
-        <v>0.1751272619614837</v>
+        <v>0.2219177355971867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>38.657336</v>
       </c>
       <c r="I10">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J10">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N10">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O10">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P10">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q10">
-        <v>76.44957236343465</v>
+        <v>69.90584751677511</v>
       </c>
       <c r="R10">
-        <v>688.046151270912</v>
+        <v>629.152627650976</v>
       </c>
       <c r="S10">
-        <v>0.02368515167615453</v>
+        <v>0.0137029749007617</v>
       </c>
       <c r="T10">
-        <v>0.02368515167615453</v>
+        <v>0.01370297490076169</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>38.657336</v>
       </c>
       <c r="I11">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J11">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N11">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O11">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P11">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q11">
-        <v>896.555858243696</v>
+        <v>1234.315332974927</v>
       </c>
       <c r="R11">
-        <v>8069.002724193264</v>
+        <v>11108.83799677434</v>
       </c>
       <c r="S11">
-        <v>0.2777656019800502</v>
+        <v>0.2419510331138176</v>
       </c>
       <c r="T11">
-        <v>0.2777656019800502</v>
+        <v>0.2419510331138176</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H12">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I12">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J12">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N12">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O12">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P12">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q12">
-        <v>78.14907483510267</v>
+        <v>0.4838376451905555</v>
       </c>
       <c r="R12">
-        <v>703.341673515924</v>
+        <v>4.354538806714999</v>
       </c>
       <c r="S12">
-        <v>0.02421168142080892</v>
+        <v>9.484206748940192E-05</v>
       </c>
       <c r="T12">
-        <v>0.02421168142080892</v>
+        <v>9.484206748940192E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H13">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I13">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J13">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>16.614382</v>
       </c>
       <c r="N13">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O13">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P13">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q13">
-        <v>107.530124500402</v>
+        <v>0.5687379864966665</v>
       </c>
       <c r="R13">
-        <v>967.7711205036181</v>
+        <v>5.118641878469998</v>
       </c>
       <c r="S13">
-        <v>0.03331434342680448</v>
+        <v>0.0001114842696414403</v>
       </c>
       <c r="T13">
-        <v>0.03331434342680447</v>
+        <v>0.0001114842696414403</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H14">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I14">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J14">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N14">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O14">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P14">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q14">
-        <v>283.9147381730287</v>
+        <v>3.007516595913333</v>
       </c>
       <c r="R14">
-        <v>2555.232643557258</v>
+        <v>27.06764936322</v>
       </c>
       <c r="S14">
-        <v>0.08796077504208777</v>
+        <v>0.0005895347226501352</v>
       </c>
       <c r="T14">
-        <v>0.08796077504208775</v>
+        <v>0.0005895347226501352</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H15">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I15">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J15">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N15">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O15">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P15">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q15">
-        <v>38.398154355904</v>
+        <v>0.1857081152911111</v>
       </c>
       <c r="R15">
-        <v>345.583389203136</v>
+        <v>1.67137303762</v>
       </c>
       <c r="S15">
-        <v>0.01189628773435719</v>
+        <v>3.640258623702684E-05</v>
       </c>
       <c r="T15">
-        <v>0.01189628773435719</v>
+        <v>3.640258623702684E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H16">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I16">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J16">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N16">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O16">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P16">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q16">
-        <v>450.3110896405381</v>
+        <v>3.279015737656111</v>
       </c>
       <c r="R16">
-        <v>4052.799806764842</v>
+        <v>29.51114163890499</v>
       </c>
       <c r="S16">
-        <v>0.1395127026857235</v>
+        <v>0.0006427541035322118</v>
       </c>
       <c r="T16">
-        <v>0.1395127026857235</v>
+        <v>0.0006427541035322118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.520146</v>
+      </c>
+      <c r="H17">
+        <v>22.560438</v>
+      </c>
+      <c r="I17">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J17">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.13421233333333</v>
+      </c>
+      <c r="N17">
+        <v>42.402637</v>
+      </c>
+      <c r="O17">
+        <v>0.06429893302526193</v>
+      </c>
+      <c r="P17">
+        <v>0.06429893302526192</v>
+      </c>
+      <c r="Q17">
+        <v>106.2913403416673</v>
+      </c>
+      <c r="R17">
+        <v>956.6220630750058</v>
+      </c>
+      <c r="S17">
+        <v>0.02083527516808479</v>
+      </c>
+      <c r="T17">
+        <v>0.02083527516808479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.520146</v>
+      </c>
+      <c r="H18">
+        <v>22.560438</v>
+      </c>
+      <c r="I18">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J18">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>16.614382</v>
+      </c>
+      <c r="N18">
+        <v>49.84314599999999</v>
+      </c>
+      <c r="O18">
+        <v>0.07558164617031606</v>
+      </c>
+      <c r="P18">
+        <v>0.07558164617031604</v>
+      </c>
+      <c r="Q18">
+        <v>124.942578339772</v>
+      </c>
+      <c r="R18">
+        <v>1124.483205057948</v>
+      </c>
+      <c r="S18">
+        <v>0.02449129902352594</v>
+      </c>
+      <c r="T18">
+        <v>0.02449129902352593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.520146</v>
+      </c>
+      <c r="H19">
+        <v>22.560438</v>
+      </c>
+      <c r="I19">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J19">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>87.857732</v>
+      </c>
+      <c r="N19">
+        <v>263.573196</v>
+      </c>
+      <c r="O19">
+        <v>0.3996797481453391</v>
+      </c>
+      <c r="P19">
+        <v>0.399679748145339</v>
+      </c>
+      <c r="Q19">
+        <v>660.7029718688719</v>
+      </c>
+      <c r="R19">
+        <v>5946.326746819847</v>
+      </c>
+      <c r="S19">
+        <v>0.1295112864228596</v>
+      </c>
+      <c r="T19">
+        <v>0.1295112864228596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.520146</v>
+      </c>
+      <c r="H20">
+        <v>22.560438</v>
+      </c>
+      <c r="I20">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J20">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.425038666666667</v>
+      </c>
+      <c r="N20">
+        <v>16.275116</v>
+      </c>
+      <c r="O20">
+        <v>0.02467942250059516</v>
+      </c>
+      <c r="P20">
+        <v>0.02467942250059516</v>
+      </c>
+      <c r="Q20">
+        <v>40.79708282897867</v>
+      </c>
+      <c r="R20">
+        <v>367.173745460808</v>
+      </c>
+      <c r="S20">
+        <v>0.007997062075467134</v>
+      </c>
+      <c r="T20">
+        <v>0.007997062075467134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.520146</v>
+      </c>
+      <c r="H21">
+        <v>22.560438</v>
+      </c>
+      <c r="I21">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J21">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>95.78895966666666</v>
+      </c>
+      <c r="N21">
+        <v>287.366879</v>
+      </c>
+      <c r="O21">
+        <v>0.4357602501584878</v>
+      </c>
+      <c r="P21">
+        <v>0.4357602501584877</v>
+      </c>
+      <c r="Q21">
+        <v>720.3469618814446</v>
+      </c>
+      <c r="R21">
+        <v>6483.122656933001</v>
+      </c>
+      <c r="S21">
+        <v>0.1412027275133555</v>
+      </c>
+      <c r="T21">
+        <v>0.1412027275133555</v>
       </c>
     </row>
   </sheetData>
